--- a/Rastreo productos/inglaterra.xlsx
+++ b/Rastreo productos/inglaterra.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="10515" windowHeight="6600" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="10515" windowHeight="6540" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="31-06_06" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4548" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4548" uniqueCount="391">
   <si>
     <t>clave</t>
   </si>
@@ -1189,6 +1189,12 @@
   <si>
     <t>PITUFO 1/2 PANELA 1/2 PORTOBELLO</t>
   </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>CANTIDAD</t>
+  </si>
 </sst>
 </file>
 
@@ -81670,7 +81676,7 @@
   <dimension ref="A1:M278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -81680,7 +81686,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>389</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -81692,7 +81698,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>390</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
